--- a/biology/Zoologie/Emergency_Wetlands_Resource_Act_of_1986/Emergency_Wetlands_Resource_Act_of_1986.xlsx
+++ b/biology/Zoologie/Emergency_Wetlands_Resource_Act_of_1986/Emergency_Wetlands_Resource_Act_of_1986.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Emergency Wetlands Resource Act of 1986 est une loi américaine sur la protection des zones humides. Elle permet l'achat par des investisseurs privés appelé Land and Water Conservation Fund, de zones humides afin de les protéger, supprimant des dispositions précédentes réservant ce droit à l'administration.
 Le secrétaire du département de l'Intérieur des États-Unis établit le National Wetlands Priority Conservation Plan qui permet aux États d'élaborer leur Comprehensive Outdoor Recreation Plans qui gère les fonds issus des Migratory Bird Conservation Fund, provenant de la vente des armes de chasse et des munitions. 
@@ -514,7 +526,9 @@
           <t>Liens web</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) « Digest of Federal Resource Laws of Interest to the U.S. Fish and Wildlife Service », USFWS
  Portail du droit   Portail des États-Unis   Portail de l'ornithologie                   </t>
